--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3509.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3509.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.442855670080866</v>
+        <v>2.132146835327148</v>
       </c>
       <c r="B1">
-        <v>2.839686300438245</v>
+        <v>3.021248340606689</v>
       </c>
       <c r="C1">
-        <v>3.691496497132757</v>
+        <v>2.350072860717773</v>
       </c>
       <c r="D1">
-        <v>3.637119735639001</v>
+        <v>2.243273496627808</v>
       </c>
       <c r="E1">
-        <v>1.195014832341476</v>
+        <v>2.198022127151489</v>
       </c>
     </row>
   </sheetData>
